--- a/Balance_2024.xlsx
+++ b/Balance_2024.xlsx
@@ -891,7 +891,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1103,6 +1103,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6948,8 +6951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -7515,7 +7518,7 @@
         <f>IF(F32 &lt; J32,"SALDO A FAVOR",IF(F32&gt;J32,"SALDO PENDIENTE","IGUAL"))</f>
         <v>SALDO A FAVOR</v>
       </c>
-      <c r="F33" s="16">
+      <c r="F33" s="71">
         <f>+J32-F32</f>
         <v>3405511</v>
       </c>
@@ -7545,6 +7548,9 @@
       <c r="H36" s="41"/>
     </row>
     <row r="37" spans="5:8">
+      <c r="F37">
+        <v>700000</v>
+      </c>
       <c r="G37" s="40" t="s">
         <v>137</v>
       </c>

--- a/Balance_2024.xlsx
+++ b/Balance_2024.xlsx
@@ -6951,8 +6951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -6965,8 +6965,9 @@
     <col min="7" max="7" width="28.42578125" style="40" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="26" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:12">
@@ -7105,7 +7106,7 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -7198,7 +7199,7 @@
       </c>
       <c r="D14">
         <f>SUM(D4:D13)</f>
-        <v>233</v>
+        <v>133</v>
       </c>
       <c r="E14">
         <f>SUM(E4:E13)</f>
@@ -7223,16 +7224,16 @@
         <v>105</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="H15">
         <v>12112024</v>
@@ -7250,19 +7251,19 @@
       </c>
       <c r="C16">
         <f>C14-C15</f>
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="D16">
         <f>D14-D15</f>
-        <v>233</v>
+        <v>122</v>
       </c>
       <c r="E16">
         <f>E14-E15</f>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F16">
         <f>F14-F15</f>
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="G16" s="40" t="s">
         <v>111</v>
@@ -7313,14 +7314,14 @@
         <v>2</v>
       </c>
       <c r="D19">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="E19" s="16">
         <v>68000</v>
       </c>
       <c r="F19" s="66">
         <f>D19*E19</f>
-        <v>12376000</v>
+        <v>11356000</v>
       </c>
       <c r="G19" s="65"/>
       <c r="J19" s="41"/>
@@ -7330,14 +7331,14 @@
         <v>3</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>122</v>
       </c>
       <c r="E20" s="16">
         <v>68000</v>
       </c>
       <c r="F20" s="66">
         <f t="shared" ref="F20:F25" si="0">D20*E20</f>
-        <v>0</v>
+        <v>8296000</v>
       </c>
       <c r="G20" s="65"/>
       <c r="J20" s="41"/>
@@ -7347,14 +7348,14 @@
         <v>49</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" s="16">
         <v>68000</v>
       </c>
       <c r="F21" s="66">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>68000</v>
       </c>
       <c r="G21" s="65"/>
       <c r="J21" s="41"/>
@@ -7384,14 +7385,14 @@
         <v>47</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="E23" s="16">
         <v>55000</v>
       </c>
       <c r="F23" s="66">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1265000</v>
       </c>
       <c r="G23" s="65"/>
       <c r="J23" s="41"/>
@@ -7452,7 +7453,7 @@
       <c r="F26" s="16"/>
       <c r="J26" s="41"/>
     </row>
-    <row r="27" spans="2:13">
+    <row r="27" spans="2:13" hidden="1">
       <c r="E27" s="16"/>
       <c r="F27" s="16"/>
       <c r="J27" s="41"/>
@@ -7465,7 +7466,7 @@
     <row r="29" spans="2:13">
       <c r="D29" s="43">
         <f>SUM(D19:D28)</f>
-        <v>182</v>
+        <v>313</v>
       </c>
       <c r="F29" s="16"/>
       <c r="J29" s="41"/>
@@ -7476,7 +7477,7 @@
       </c>
       <c r="F30" s="16">
         <f>SUM(F19:F29)</f>
-        <v>12376000</v>
+        <v>20985000</v>
       </c>
       <c r="J30" s="41"/>
     </row>
@@ -7495,7 +7496,7 @@
       </c>
       <c r="F32" s="16">
         <f>SUM(F30:F31)-F34</f>
-        <v>15699489</v>
+        <v>24308489</v>
       </c>
       <c r="G32" s="40" t="s">
         <v>116</v>
@@ -7516,11 +7517,11 @@
     <row r="33" spans="5:8">
       <c r="E33" s="39" t="str">
         <f>IF(F32 &lt; J32,"SALDO A FAVOR",IF(F32&gt;J32,"SALDO PENDIENTE","IGUAL"))</f>
-        <v>SALDO A FAVOR</v>
+        <v>SALDO PENDIENTE</v>
       </c>
       <c r="F33" s="71">
         <f>+J32-F32</f>
-        <v>3405511</v>
+        <v>-5203489</v>
       </c>
       <c r="G33" s="40" t="s">
         <v>115</v>
